--- a/top3_pizza_category_by_state_12mon(sample export).xlsx
+++ b/top3_pizza_category_by_state_12mon(sample export).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -48,7 +48,7 @@
         <color rgb="FF000000"/>
         <sz val="10.0"/>
       </rPr>
-      <t>: Jan 19, 2023 7:12 PM</t>
+      <t>: Jan 19, 2023 8:28 PM</t>
     </r>
   </si>
   <si>
@@ -73,31 +73,58 @@
     <t>top_type</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>meat lover</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>veggie</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>pepperoni</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>supreme</t>
-  </si>
-  <si>
-    <t>meat lover</t>
-  </si>
-  <si>
-    <t>pepperoni</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>veggie</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
   <si>
     <t>New Mexico</t>
@@ -106,142 +133,115 @@
     <t>North Carolina</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
   </si>
   <si>
     <t>Iowa</t>
   </si>
   <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Texas</t>
   </si>
   <si>
     <t>Oregon</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
     <t>Massachusetts</t>
   </si>
   <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
     <t>Kansas</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -589,16 +589,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="4">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3" s="4">
-        <v>164.89</v>
+        <v>74.95</v>
       </c>
       <c r="E3" s="4">
-        <v>4.2064E-5</v>
+        <v>3.2277E-5</v>
       </c>
       <c r="F3" s="4">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="4">
         <v>1.0</v>
@@ -612,16 +612,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="6">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" s="6">
-        <v>164.89</v>
+        <v>54.75</v>
       </c>
       <c r="E4" s="6">
-        <v>4.2064E-5</v>
+        <v>2.3578E-5</v>
       </c>
       <c r="F4" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G4" s="6">
         <v>2.0</v>
@@ -635,16 +635,16 @@
         <v>11</v>
       </c>
       <c r="C5" s="4">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="4">
-        <v>95.92</v>
+        <v>11.99</v>
       </c>
       <c r="E5" s="4">
-        <v>2.447E-5</v>
+        <v>5.163E-6</v>
       </c>
       <c r="F5" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" s="4">
         <v>3.0</v>
@@ -655,19 +655,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>12.0</v>
       </c>
       <c r="D6" s="6">
-        <v>143.88</v>
+        <v>131.4</v>
       </c>
       <c r="E6" s="6">
-        <v>4.9987E-5</v>
+        <v>2.41402E-4</v>
       </c>
       <c r="F6" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" s="6">
         <v>1.0</v>
@@ -681,13 +681,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7" s="4">
-        <v>120.45</v>
+        <v>83.93</v>
       </c>
       <c r="E7" s="4">
-        <v>4.1847E-5</v>
+        <v>1.54192E-4</v>
       </c>
       <c r="F7" s="4">
         <v>5.0</v>
@@ -701,16 +701,16 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8" s="6">
-        <v>164.89</v>
+        <v>83.93</v>
       </c>
       <c r="E8" s="6">
-        <v>5.7286E-5</v>
+        <v>1.54192E-4</v>
       </c>
       <c r="F8" s="6">
         <v>3.0</v>
@@ -724,16 +724,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" s="4">
-        <v>167.86</v>
+        <v>95.92</v>
       </c>
       <c r="E9" s="4">
-        <v>3.2153E-5</v>
+        <v>3.3325E-5</v>
       </c>
       <c r="F9" s="4">
         <v>5.0</v>
@@ -747,19 +747,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10" s="6">
-        <v>131.4</v>
+        <v>43.8</v>
       </c>
       <c r="E10" s="6">
-        <v>2.517E-5</v>
+        <v>1.5217E-5</v>
       </c>
       <c r="F10" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="6">
         <v>2.0</v>
@@ -770,19 +770,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11" s="4">
-        <v>179.88</v>
+        <v>35.97</v>
       </c>
       <c r="E11" s="4">
-        <v>3.4456E-5</v>
+        <v>1.2497E-5</v>
       </c>
       <c r="F11" s="4">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" s="4">
         <v>3.0</v>
@@ -790,22 +790,22 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="6">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12" s="6">
-        <v>224.85</v>
+        <v>149.9</v>
       </c>
       <c r="E12" s="6">
-        <v>6.3481E-5</v>
+        <v>2.8713E-5</v>
       </c>
       <c r="F12" s="6">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" s="6">
         <v>1.0</v>
@@ -813,22 +813,22 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13" s="4">
-        <v>131.89</v>
+        <v>104.93</v>
       </c>
       <c r="E13" s="4">
-        <v>3.7236E-5</v>
+        <v>2.0099E-5</v>
       </c>
       <c r="F13" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" s="4">
         <v>2.0</v>
@@ -836,22 +836,22 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D14" s="6">
-        <v>164.89</v>
+        <v>65.7</v>
       </c>
       <c r="E14" s="6">
-        <v>4.6553E-5</v>
+        <v>1.2585E-5</v>
       </c>
       <c r="F14" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" s="6">
         <v>3.0</v>
@@ -865,16 +865,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15" s="4">
-        <v>269.82</v>
+        <v>76.65</v>
       </c>
       <c r="E15" s="4">
-        <v>1.64117E-4</v>
+        <v>2.164E-5</v>
       </c>
       <c r="F15" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" s="4">
         <v>1.0</v>
@@ -888,16 +888,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="6">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="D16" s="6">
-        <v>191.84</v>
+        <v>71.94</v>
       </c>
       <c r="E16" s="6">
-        <v>1.16686E-4</v>
+        <v>2.0311E-5</v>
       </c>
       <c r="F16" s="6">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="G16" s="6">
         <v>2.0</v>
@@ -908,19 +908,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17" s="4">
-        <v>143.88</v>
+        <v>44.97</v>
       </c>
       <c r="E17" s="4">
-        <v>8.7515E-5</v>
+        <v>1.2696E-5</v>
       </c>
       <c r="F17" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" s="4">
         <v>3.0</v>
@@ -931,19 +931,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D18" s="6">
-        <v>164.89</v>
+        <v>74.95</v>
       </c>
       <c r="E18" s="6">
-        <v>1.9983E-5</v>
+        <v>1.912E-5</v>
       </c>
       <c r="F18" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" s="6">
         <v>1.0</v>
@@ -954,19 +954,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19" s="4">
-        <v>149.9</v>
+        <v>32.85</v>
       </c>
       <c r="E19" s="4">
-        <v>1.8167E-5</v>
+        <v>8.38E-6</v>
       </c>
       <c r="F19" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G19" s="4">
         <v>2.0</v>
@@ -977,19 +977,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="6">
-        <v>107.91</v>
+        <v>14.99</v>
       </c>
       <c r="E20" s="6">
-        <v>1.3078E-5</v>
+        <v>3.824E-6</v>
       </c>
       <c r="F20" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" s="6">
         <v>3.0</v>
@@ -1000,19 +1000,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21" s="4">
-        <v>87.6</v>
+        <v>35.97</v>
       </c>
       <c r="E21" s="4">
-        <v>3.2232E-5</v>
+        <v>1.3235E-5</v>
       </c>
       <c r="F21" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G21" s="4">
         <v>1.0</v>
@@ -1023,19 +1023,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22" s="6">
-        <v>89.94</v>
+        <v>44.97</v>
       </c>
       <c r="E22" s="6">
-        <v>3.3093E-5</v>
+        <v>1.6546E-5</v>
       </c>
       <c r="F22" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G22" s="6">
         <v>2.0</v>
@@ -1046,19 +1046,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23" s="4">
-        <v>59.96</v>
+        <v>23.98</v>
       </c>
       <c r="E23" s="4">
-        <v>2.2062E-5</v>
+        <v>8.823E-6</v>
       </c>
       <c r="F23" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" s="4">
         <v>3.0</v>
@@ -1072,16 +1072,16 @@
         <v>13</v>
       </c>
       <c r="C24" s="6">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="D24" s="6">
-        <v>229.95</v>
+        <v>155.87</v>
       </c>
       <c r="E24" s="6">
-        <v>9.3624E-5</v>
+        <v>3.5438E-5</v>
       </c>
       <c r="F24" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G24" s="6">
         <v>1.0</v>
@@ -1092,16 +1092,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="D25" s="4">
-        <v>143.88</v>
+        <v>134.91</v>
       </c>
       <c r="E25" s="4">
-        <v>5.8581E-5</v>
+        <v>3.0672E-5</v>
       </c>
       <c r="F25" s="4">
         <v>3.0</v>
@@ -1115,19 +1115,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26" s="6">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D26" s="6">
-        <v>119.9</v>
+        <v>65.7</v>
       </c>
       <c r="E26" s="6">
-        <v>4.8817E-5</v>
+        <v>1.4937E-5</v>
       </c>
       <c r="F26" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G26" s="6">
         <v>3.0</v>
@@ -1138,19 +1138,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27" s="4">
-        <v>347.71</v>
+        <v>35.97</v>
       </c>
       <c r="E27" s="4">
-        <v>7.9054E-5</v>
+        <v>1.0295E-5</v>
       </c>
       <c r="F27" s="4">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="4">
         <v>1.0</v>
@@ -1161,19 +1161,19 @@
         <v>21</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28" s="6">
-        <v>224.85</v>
+        <v>44.97</v>
       </c>
       <c r="E28" s="6">
-        <v>5.1121E-5</v>
+        <v>1.2871E-5</v>
       </c>
       <c r="F28" s="6">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G28" s="6">
         <v>2.0</v>
@@ -1181,25 +1181,25 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D29" s="4">
-        <v>119.92</v>
+        <v>71.94</v>
       </c>
       <c r="E29" s="4">
-        <v>2.7264E-5</v>
+        <v>6.991E-6</v>
       </c>
       <c r="F29" s="4">
         <v>3.0</v>
       </c>
       <c r="G29" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1207,22 +1207,22 @@
         <v>22</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D30" s="6">
-        <v>87.6</v>
+        <v>89.94</v>
       </c>
       <c r="E30" s="6">
-        <v>1.5471E-5</v>
+        <v>8.741E-6</v>
       </c>
       <c r="F30" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -1230,45 +1230,45 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31" s="4">
-        <v>95.92</v>
+        <v>74.95</v>
       </c>
       <c r="E31" s="4">
-        <v>1.6941E-5</v>
+        <v>7.284E-6</v>
       </c>
       <c r="F31" s="4">
         <v>2.0</v>
       </c>
       <c r="G31" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="6">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D32" s="6">
-        <v>89.94</v>
+        <v>59.96</v>
       </c>
       <c r="E32" s="6">
-        <v>1.5885E-5</v>
+        <v>7.5434E-5</v>
       </c>
       <c r="F32" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1276,22 +1276,22 @@
         <v>23</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="D33" s="4">
-        <v>269.82</v>
+        <v>44.97</v>
       </c>
       <c r="E33" s="4">
-        <v>1.5424E-5</v>
+        <v>5.6576E-5</v>
       </c>
       <c r="F33" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -1302,42 +1302,42 @@
         <v>10</v>
       </c>
       <c r="C34" s="6">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="6">
-        <v>254.83</v>
+        <v>10.95</v>
       </c>
       <c r="E34" s="6">
-        <v>1.4567E-5</v>
+        <v>1.3776E-5</v>
       </c>
       <c r="F34" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="D35" s="4">
-        <v>107.91</v>
+        <v>269.82</v>
       </c>
       <c r="E35" s="4">
-        <v>6.169E-6</v>
+        <v>3.9912E-5</v>
       </c>
       <c r="F35" s="4">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="G35" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -1345,22 +1345,22 @@
         <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" s="6">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" s="6">
-        <v>83.93</v>
+        <v>21.9</v>
       </c>
       <c r="E36" s="6">
-        <v>9.6535E-5</v>
+        <v>3.239E-6</v>
       </c>
       <c r="F36" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="37">
@@ -1368,45 +1368,45 @@
         <v>24</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D37" s="4">
-        <v>54.75</v>
+        <v>29.98</v>
       </c>
       <c r="E37" s="4">
-        <v>6.2973E-5</v>
+        <v>4.435E-6</v>
       </c>
       <c r="F37" s="4">
         <v>1.0</v>
       </c>
       <c r="G37" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="6">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D38" s="6">
-        <v>47.96</v>
+        <v>95.92</v>
       </c>
       <c r="E38" s="6">
-        <v>5.5163E-5</v>
+        <v>1.6941E-5</v>
       </c>
       <c r="F38" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -1414,22 +1414,22 @@
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="D39" s="4">
-        <v>142.35</v>
+        <v>65.7</v>
       </c>
       <c r="E39" s="4">
-        <v>5.9498E-5</v>
+        <v>1.1604E-5</v>
       </c>
       <c r="F39" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1437,45 +1437,45 @@
         <v>25</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="6">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" s="6">
-        <v>134.91</v>
+        <v>59.96</v>
       </c>
       <c r="E40" s="6">
-        <v>5.6388E-5</v>
+        <v>1.059E-5</v>
       </c>
       <c r="F40" s="6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D41" s="4">
-        <v>83.93</v>
+        <v>119.9</v>
       </c>
       <c r="E41" s="4">
-        <v>3.508E-5</v>
+        <v>7.2929E-5</v>
       </c>
       <c r="F41" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G41" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -1483,22 +1483,22 @@
         <v>26</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C42" s="6">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D42" s="6">
-        <v>179.88</v>
+        <v>95.92</v>
       </c>
       <c r="E42" s="6">
-        <v>3.7436E-5</v>
+        <v>5.8343E-5</v>
       </c>
       <c r="F42" s="6">
         <v>4.0</v>
       </c>
       <c r="G42" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43">
@@ -1506,45 +1506,45 @@
         <v>26</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="D43" s="4">
-        <v>59.95</v>
+        <v>104.93</v>
       </c>
       <c r="E43" s="4">
-        <v>1.2477E-5</v>
+        <v>6.3823E-5</v>
       </c>
       <c r="F43" s="4">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G43" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C44" s="6">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D44" s="6">
-        <v>43.8</v>
+        <v>107.91</v>
       </c>
       <c r="E44" s="6">
-        <v>9.115E-6</v>
+        <v>1.3078E-5</v>
       </c>
       <c r="F44" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -1552,22 +1552,22 @@
         <v>27</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="D45" s="4">
-        <v>219.0</v>
+        <v>119.92</v>
       </c>
       <c r="E45" s="4">
-        <v>1.392E-5</v>
+        <v>1.4533E-5</v>
       </c>
       <c r="F45" s="4">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="G45" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="46">
@@ -1575,45 +1575,45 @@
         <v>27</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="6">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="D46" s="6">
-        <v>179.88</v>
+        <v>23.98</v>
       </c>
       <c r="E46" s="6">
-        <v>1.1434E-5</v>
+        <v>2.906E-6</v>
       </c>
       <c r="F46" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D47" s="4">
-        <v>83.93</v>
+        <v>179.88</v>
       </c>
       <c r="E47" s="4">
-        <v>5.335E-6</v>
+        <v>1.0283E-5</v>
       </c>
       <c r="F47" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G47" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1624,19 +1624,19 @@
         <v>9</v>
       </c>
       <c r="C48" s="6">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D48" s="6">
-        <v>149.9</v>
+        <v>104.93</v>
       </c>
       <c r="E48" s="6">
-        <v>1.8109E-5</v>
+        <v>5.998E-6</v>
       </c>
       <c r="F48" s="6">
         <v>4.0</v>
       </c>
       <c r="G48" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="49">
@@ -1644,45 +1644,45 @@
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D49" s="4">
-        <v>59.95</v>
+        <v>47.96</v>
       </c>
       <c r="E49" s="4">
-        <v>7.243E-6</v>
+        <v>2.742E-6</v>
       </c>
       <c r="F49" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G49" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="6">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D50" s="6">
-        <v>43.8</v>
+        <v>119.92</v>
       </c>
       <c r="E50" s="6">
-        <v>5.291E-6</v>
+        <v>1.9779E-5</v>
       </c>
       <c r="F50" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G50" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1690,22 +1690,22 @@
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C51" s="4">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="D51" s="4">
-        <v>179.85</v>
+        <v>71.94</v>
       </c>
       <c r="E51" s="4">
-        <v>1.21398E-4</v>
+        <v>1.1866E-5</v>
       </c>
       <c r="F51" s="4">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G51" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="52">
@@ -1713,45 +1713,45 @@
         <v>29</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C52" s="6">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="D52" s="6">
-        <v>167.86</v>
+        <v>44.97</v>
       </c>
       <c r="E52" s="6">
-        <v>1.13305E-4</v>
+        <v>7.417E-6</v>
       </c>
       <c r="F52" s="6">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D53" s="4">
-        <v>179.88</v>
+        <v>89.94</v>
       </c>
       <c r="E53" s="4">
-        <v>1.21418E-4</v>
+        <v>1.6256E-4</v>
       </c>
       <c r="F53" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G53" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -1759,22 +1759,22 @@
         <v>30</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54" s="6">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="D54" s="6">
-        <v>153.3</v>
+        <v>59.95</v>
       </c>
       <c r="E54" s="6">
-        <v>1.553E-5</v>
+        <v>1.08355E-4</v>
       </c>
       <c r="F54" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G54" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -1782,45 +1782,45 @@
         <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D55" s="4">
-        <v>119.92</v>
+        <v>47.96</v>
       </c>
       <c r="E55" s="4">
-        <v>1.2148E-5</v>
+        <v>8.6684E-5</v>
       </c>
       <c r="F55" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C56" s="6">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D56" s="6">
-        <v>95.92</v>
+        <v>131.89</v>
       </c>
       <c r="E56" s="6">
-        <v>9.717E-6</v>
+        <v>1.16435E-4</v>
       </c>
       <c r="F56" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -1828,22 +1828,22 @@
         <v>31</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C57" s="4">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="D57" s="4">
-        <v>299.8</v>
+        <v>89.94</v>
       </c>
       <c r="E57" s="4">
-        <v>9.8986E-5</v>
+        <v>7.9401E-5</v>
       </c>
       <c r="F57" s="4">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="58">
@@ -1851,45 +1851,45 @@
         <v>31</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C58" s="6">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="D58" s="6">
-        <v>191.84</v>
+        <v>59.95</v>
       </c>
       <c r="E58" s="6">
-        <v>6.3341E-5</v>
+        <v>5.2925E-5</v>
       </c>
       <c r="F58" s="6">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G58" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="D59" s="4">
-        <v>179.88</v>
+        <v>104.93</v>
       </c>
       <c r="E59" s="4">
-        <v>5.9392E-5</v>
+        <v>1.2677E-5</v>
       </c>
       <c r="F59" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="G59" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60">
@@ -1897,22 +1897,22 @@
         <v>32</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60" s="6">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="D60" s="6">
-        <v>131.4</v>
+        <v>59.95</v>
       </c>
       <c r="E60" s="6">
-        <v>1.94737E-4</v>
+        <v>7.243E-6</v>
       </c>
       <c r="F60" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="61">
@@ -1920,45 +1920,45 @@
         <v>32</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" s="4">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="D61" s="4">
-        <v>179.88</v>
+        <v>10.95</v>
       </c>
       <c r="E61" s="4">
-        <v>2.66586E-4</v>
+        <v>1.323E-6</v>
       </c>
       <c r="F61" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" s="6">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D62" s="6">
-        <v>131.89</v>
+        <v>104.93</v>
       </c>
       <c r="E62" s="6">
-        <v>1.95464E-4</v>
+        <v>1.98429E-4</v>
       </c>
       <c r="F62" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G62" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -1966,22 +1966,22 @@
         <v>33</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C63" s="4">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="D63" s="4">
-        <v>143.88</v>
+        <v>65.7</v>
       </c>
       <c r="E63" s="4">
-        <v>6.3718E-5</v>
+        <v>1.24243E-4</v>
       </c>
       <c r="F63" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G63" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="64">
@@ -1989,45 +1989,45 @@
         <v>33</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C64" s="6">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D64" s="6">
-        <v>179.88</v>
+        <v>47.96</v>
       </c>
       <c r="E64" s="6">
-        <v>7.9661E-5</v>
+        <v>9.0695E-5</v>
       </c>
       <c r="F64" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G64" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C65" s="4">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D65" s="4">
-        <v>119.9</v>
+        <v>83.93</v>
       </c>
       <c r="E65" s="4">
-        <v>5.3098E-5</v>
+        <v>1.87648E-4</v>
       </c>
       <c r="F65" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G65" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -2035,22 +2035,22 @@
         <v>34</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" s="6">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="D66" s="6">
-        <v>120.45</v>
+        <v>44.97</v>
       </c>
       <c r="E66" s="6">
-        <v>1.05904E-4</v>
+        <v>1.00542E-4</v>
       </c>
       <c r="F66" s="6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G66" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2061,42 +2061,42 @@
         <v>9</v>
       </c>
       <c r="C67" s="4">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="D67" s="4">
-        <v>164.89</v>
+        <v>14.99</v>
       </c>
       <c r="E67" s="4">
-        <v>1.44977E-4</v>
+        <v>3.3514E-5</v>
       </c>
       <c r="F67" s="4">
         <v>1.0</v>
       </c>
       <c r="G67" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="6">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D68" s="6">
-        <v>11.99</v>
+        <v>65.7</v>
       </c>
       <c r="E68" s="6">
-        <v>1.0542E-5</v>
+        <v>5.7766E-5</v>
       </c>
       <c r="F68" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -2104,22 +2104,22 @@
         <v>35</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C69" s="4">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="D69" s="4">
-        <v>164.25</v>
+        <v>74.95</v>
       </c>
       <c r="E69" s="4">
-        <v>2.77281E-4</v>
+        <v>6.5899E-5</v>
       </c>
       <c r="F69" s="4">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G69" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="70">
@@ -2127,45 +2127,45 @@
         <v>35</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="6">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="D70" s="6">
-        <v>224.85</v>
+        <v>14.99</v>
       </c>
       <c r="E70" s="6">
-        <v>3.79584E-4</v>
+        <v>1.318E-5</v>
       </c>
       <c r="F70" s="6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C71" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D71" s="4">
-        <v>119.9</v>
+        <v>98.55</v>
       </c>
       <c r="E71" s="4">
-        <v>2.02411E-4</v>
+        <v>1.66369E-4</v>
       </c>
       <c r="F71" s="4">
         <v>4.0</v>
       </c>
       <c r="G71" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72">
@@ -2176,19 +2176,19 @@
         <v>13</v>
       </c>
       <c r="C72" s="6">
-        <v>23.0</v>
+        <v>9.0</v>
       </c>
       <c r="D72" s="6">
-        <v>251.85</v>
+        <v>107.91</v>
       </c>
       <c r="E72" s="6">
-        <v>8.266E-6</v>
+        <v>1.8217E-4</v>
       </c>
       <c r="F72" s="6">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="G72" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="73">
@@ -2199,42 +2199,42 @@
         <v>11</v>
       </c>
       <c r="C73" s="4">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="D73" s="4">
-        <v>263.78</v>
+        <v>83.93</v>
       </c>
       <c r="E73" s="4">
-        <v>8.658E-6</v>
+        <v>1.41688E-4</v>
       </c>
       <c r="F73" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G73" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C74" s="6">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D74" s="6">
-        <v>131.89</v>
+        <v>107.91</v>
       </c>
       <c r="E74" s="6">
-        <v>4.329E-6</v>
+        <v>2.3351E-5</v>
       </c>
       <c r="F74" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -2242,22 +2242,22 @@
         <v>37</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C75" s="4">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D75" s="4">
-        <v>149.9</v>
+        <v>89.94</v>
       </c>
       <c r="E75" s="4">
-        <v>1.33533E-4</v>
+        <v>1.9462E-5</v>
       </c>
       <c r="F75" s="4">
         <v>3.0</v>
       </c>
       <c r="G75" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="76">
@@ -2265,45 +2265,45 @@
         <v>37</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C76" s="6">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="D76" s="6">
-        <v>98.55</v>
+        <v>59.96</v>
       </c>
       <c r="E76" s="6">
-        <v>8.7789E-5</v>
+        <v>1.2975E-5</v>
       </c>
       <c r="F76" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G76" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C77" s="4">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="D77" s="4">
-        <v>83.93</v>
+        <v>143.88</v>
       </c>
       <c r="E77" s="4">
-        <v>7.4766E-5</v>
+        <v>1.8215E-5</v>
       </c>
       <c r="F77" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G77" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
@@ -2311,22 +2311,22 @@
         <v>38</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C78" s="6">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="D78" s="6">
-        <v>239.84</v>
+        <v>74.95</v>
       </c>
       <c r="E78" s="6">
-        <v>5.248E-5</v>
+        <v>9.489E-6</v>
       </c>
       <c r="F78" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G78" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="79">
@@ -2334,7 +2334,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C79" s="4">
         <v>4.0</v>
@@ -2343,36 +2343,36 @@
         <v>47.96</v>
       </c>
       <c r="E79" s="4">
-        <v>1.0494E-5</v>
+        <v>6.072E-6</v>
       </c>
       <c r="F79" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G79" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="6">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D80" s="6">
-        <v>44.97</v>
+        <v>87.6</v>
       </c>
       <c r="E80" s="6">
-        <v>9.84E-6</v>
+        <v>7.8035E-5</v>
       </c>
       <c r="F80" s="6">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G80" s="6">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -2383,19 +2383,19 @@
         <v>11</v>
       </c>
       <c r="C81" s="4">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="D81" s="4">
-        <v>179.85</v>
+        <v>71.94</v>
       </c>
       <c r="E81" s="4">
-        <v>4.02103E-4</v>
+        <v>6.4085E-5</v>
       </c>
       <c r="F81" s="4">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G81" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="82">
@@ -2403,45 +2403,45 @@
         <v>39</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C82" s="6">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="D82" s="6">
-        <v>164.89</v>
+        <v>89.94</v>
       </c>
       <c r="E82" s="6">
-        <v>3.68655E-4</v>
+        <v>8.012E-5</v>
       </c>
       <c r="F82" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G82" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D83" s="4">
-        <v>32.85</v>
+        <v>83.93</v>
       </c>
       <c r="E83" s="4">
-        <v>7.3445E-5</v>
+        <v>9.6535E-5</v>
       </c>
       <c r="F83" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G83" s="4">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -2449,68 +2449,68 @@
         <v>40</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84" s="6">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="D84" s="6">
-        <v>131.89</v>
+        <v>47.96</v>
       </c>
       <c r="E84" s="6">
-        <v>3.2368E-5</v>
+        <v>5.5163E-5</v>
       </c>
       <c r="F84" s="6">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G84" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C85" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D85" s="4">
-        <v>89.94</v>
+        <v>32.85</v>
       </c>
       <c r="E85" s="4">
-        <v>2.2073E-5</v>
+        <v>1.373E-5</v>
       </c>
       <c r="F85" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C86" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D86" s="6">
-        <v>47.96</v>
+        <v>44.97</v>
       </c>
       <c r="E86" s="6">
-        <v>1.177E-5</v>
+        <v>1.8796E-5</v>
       </c>
       <c r="F86" s="6">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G86" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="87">
@@ -2518,30 +2518,30 @@
         <v>41</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C87" s="4">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="D87" s="4">
-        <v>179.88</v>
+        <v>29.98</v>
       </c>
       <c r="E87" s="4">
-        <v>2.4824E-5</v>
+        <v>1.2531E-5</v>
       </c>
       <c r="F87" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G87" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C88" s="6">
         <v>11.0</v>
@@ -2550,36 +2550,36 @@
         <v>131.89</v>
       </c>
       <c r="E88" s="6">
-        <v>1.8201E-5</v>
+        <v>1.48644E-4</v>
       </c>
       <c r="F88" s="6">
         <v>5.0</v>
       </c>
       <c r="G88" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C89" s="4">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="D89" s="4">
-        <v>164.89</v>
+        <v>149.9</v>
       </c>
       <c r="E89" s="4">
-        <v>2.2755E-5</v>
+        <v>1.68942E-4</v>
       </c>
       <c r="F89" s="4">
         <v>4.0</v>
       </c>
       <c r="G89" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="90">
@@ -2587,68 +2587,68 @@
         <v>42</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C90" s="6">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="D90" s="6">
-        <v>191.84</v>
+        <v>65.7</v>
       </c>
       <c r="E90" s="6">
-        <v>1.3495E-4</v>
+        <v>7.4046E-5</v>
       </c>
       <c r="F90" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G90" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C91" s="4">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="D91" s="4">
-        <v>209.86</v>
+        <v>107.91</v>
       </c>
       <c r="E91" s="4">
-        <v>1.47626E-4</v>
+        <v>7.2839E-5</v>
       </c>
       <c r="F91" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G91" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C92" s="6">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D92" s="6">
-        <v>164.89</v>
+        <v>107.91</v>
       </c>
       <c r="E92" s="6">
-        <v>1.15992E-4</v>
+        <v>7.2839E-5</v>
       </c>
       <c r="F92" s="6">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G92" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="93">
@@ -2656,68 +2656,68 @@
         <v>43</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="4">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="D93" s="4">
-        <v>179.85</v>
+        <v>74.95</v>
       </c>
       <c r="E93" s="4">
-        <v>5.3092E-5</v>
+        <v>5.0591E-5</v>
       </c>
       <c r="F93" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G93" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C94" s="6">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="D94" s="6">
-        <v>209.86</v>
+        <v>107.91</v>
       </c>
       <c r="E94" s="6">
-        <v>6.1951E-5</v>
+        <v>1.4892E-5</v>
       </c>
       <c r="F94" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G94" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C95" s="4">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D95" s="4">
-        <v>131.4</v>
+        <v>119.92</v>
       </c>
       <c r="E95" s="4">
-        <v>3.879E-5</v>
+        <v>1.6549E-5</v>
       </c>
       <c r="F95" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G95" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="96">
@@ -2725,68 +2725,68 @@
         <v>44</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C96" s="6">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="D96" s="6">
-        <v>311.74</v>
+        <v>89.94</v>
       </c>
       <c r="E96" s="6">
-        <v>6.5154E-5</v>
+        <v>1.2412E-5</v>
       </c>
       <c r="F96" s="6">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="G96" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C97" s="4">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="D97" s="4">
-        <v>229.95</v>
+        <v>47.96</v>
       </c>
       <c r="E97" s="4">
-        <v>4.806E-5</v>
+        <v>1.177E-5</v>
       </c>
       <c r="F97" s="4">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G97" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C98" s="6">
-        <v>20.0</v>
+        <v>4.0</v>
       </c>
       <c r="D98" s="6">
-        <v>299.8</v>
+        <v>47.96</v>
       </c>
       <c r="E98" s="6">
-        <v>6.2659E-5</v>
+        <v>1.177E-5</v>
       </c>
       <c r="F98" s="6">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="G98" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="99">
@@ -2794,68 +2794,68 @@
         <v>45</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D99" s="4">
-        <v>119.9</v>
+        <v>14.99</v>
       </c>
       <c r="E99" s="4">
-        <v>2.16711E-4</v>
+        <v>3.679E-6</v>
       </c>
       <c r="F99" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C100" s="6">
         <v>9.0</v>
       </c>
       <c r="D100" s="6">
-        <v>107.91</v>
+        <v>98.55</v>
       </c>
       <c r="E100" s="6">
-        <v>1.9504E-4</v>
+        <v>4.3643E-5</v>
       </c>
       <c r="F100" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G100" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C101" s="4">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D101" s="4">
-        <v>89.94</v>
+        <v>83.93</v>
       </c>
       <c r="E101" s="4">
-        <v>1.6256E-4</v>
+        <v>3.7169E-5</v>
       </c>
       <c r="F101" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G101" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="102">
@@ -2863,68 +2863,68 @@
         <v>46</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C102" s="6">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="D102" s="6">
-        <v>203.83</v>
+        <v>59.96</v>
       </c>
       <c r="E102" s="6">
-        <v>1.79945E-4</v>
+        <v>2.6554E-5</v>
       </c>
       <c r="F102" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G102" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C103" s="4">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="D103" s="4">
-        <v>203.83</v>
+        <v>89.94</v>
       </c>
       <c r="E103" s="4">
-        <v>1.79945E-4</v>
+        <v>1.8718E-5</v>
       </c>
       <c r="F103" s="4">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G103" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104" s="6">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="D104" s="6">
-        <v>175.2</v>
+        <v>44.97</v>
       </c>
       <c r="E104" s="6">
-        <v>1.54669E-4</v>
+        <v>9.359E-6</v>
       </c>
       <c r="F104" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="G104" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="105">
@@ -2932,68 +2932,68 @@
         <v>47</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C105" s="4">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="D105" s="4">
-        <v>179.88</v>
+        <v>11.99</v>
       </c>
       <c r="E105" s="4">
-        <v>1.9602E-5</v>
+        <v>2.495E-6</v>
       </c>
       <c r="F105" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C106" s="6">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="D106" s="6">
-        <v>95.92</v>
+        <v>120.45</v>
       </c>
       <c r="E106" s="6">
-        <v>1.0453E-5</v>
+        <v>7.656E-6</v>
       </c>
       <c r="F106" s="6">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="G106" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D107" s="4">
-        <v>76.65</v>
+        <v>149.9</v>
       </c>
       <c r="E107" s="4">
-        <v>8.353E-6</v>
+        <v>9.528E-6</v>
       </c>
       <c r="F107" s="4">
         <v>4.0</v>
       </c>
       <c r="G107" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="108">
@@ -3001,68 +3001,68 @@
         <v>48</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C108" s="6">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="D108" s="6">
-        <v>203.83</v>
+        <v>59.95</v>
       </c>
       <c r="E108" s="6">
-        <v>4.4107E-5</v>
+        <v>3.811E-6</v>
       </c>
       <c r="F108" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G108" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C109" s="4">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="D109" s="4">
-        <v>224.85</v>
+        <v>179.88</v>
       </c>
       <c r="E109" s="4">
-        <v>4.8655E-5</v>
+        <v>7.3529E-5</v>
       </c>
       <c r="F109" s="4">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G109" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="6">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D110" s="6">
-        <v>119.9</v>
+        <v>76.65</v>
       </c>
       <c r="E110" s="6">
-        <v>2.5945E-5</v>
+        <v>3.1332E-5</v>
       </c>
       <c r="F110" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="111">
@@ -3073,65 +3073,65 @@
         <v>13</v>
       </c>
       <c r="C111" s="4">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="D111" s="4">
-        <v>98.55</v>
+        <v>23.98</v>
       </c>
       <c r="E111" s="4">
-        <v>1.7527E-5</v>
+        <v>9.802E-6</v>
       </c>
       <c r="F111" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C112" s="6">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D112" s="6">
-        <v>71.94</v>
+        <v>119.92</v>
       </c>
       <c r="E112" s="6">
-        <v>1.2794E-5</v>
+        <v>1.2148E-5</v>
       </c>
       <c r="F112" s="6">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G112" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D113" s="4">
-        <v>89.94</v>
+        <v>54.75</v>
       </c>
       <c r="E113" s="4">
-        <v>1.5996E-5</v>
+        <v>5.546E-6</v>
       </c>
       <c r="F113" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G113" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="114">
@@ -3139,68 +3139,68 @@
         <v>50</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C114" s="6">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="D114" s="6">
-        <v>224.85</v>
+        <v>47.96</v>
       </c>
       <c r="E114" s="6">
-        <v>2.53412E-4</v>
+        <v>4.859E-6</v>
       </c>
       <c r="F114" s="6">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="G114" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C115" s="4">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="D115" s="4">
-        <v>179.85</v>
+        <v>194.87</v>
       </c>
       <c r="E115" s="4">
-        <v>2.02696E-4</v>
+        <v>6.4341E-5</v>
       </c>
       <c r="F115" s="4">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G115" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" s="6">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="D116" s="6">
-        <v>153.3</v>
+        <v>119.92</v>
       </c>
       <c r="E116" s="6">
-        <v>1.72773E-4</v>
+        <v>3.9595E-5</v>
       </c>
       <c r="F116" s="6">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G116" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
@@ -3208,68 +3208,68 @@
         <v>51</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C117" s="4">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="D117" s="4">
-        <v>215.82</v>
+        <v>47.96</v>
       </c>
       <c r="E117" s="4">
-        <v>3.969E-5</v>
+        <v>1.5835E-5</v>
       </c>
       <c r="F117" s="4">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C118" s="6">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="D118" s="6">
-        <v>239.84</v>
+        <v>239.8</v>
       </c>
       <c r="E118" s="6">
-        <v>4.4108E-5</v>
+        <v>7.871E-6</v>
       </c>
       <c r="F118" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G118" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" s="4">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="D119" s="4">
-        <v>164.89</v>
+        <v>131.4</v>
       </c>
       <c r="E119" s="4">
-        <v>3.0324E-5</v>
+        <v>4.313E-6</v>
       </c>
       <c r="F119" s="4">
         <v>5.0</v>
       </c>
       <c r="G119" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="120">
@@ -3277,68 +3277,68 @@
         <v>52</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C120" s="6">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="D120" s="6">
-        <v>269.82</v>
+        <v>83.93</v>
       </c>
       <c r="E120" s="6">
-        <v>5.10247E-4</v>
+        <v>2.755E-6</v>
       </c>
       <c r="F120" s="6">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" s="4">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="D121" s="4">
-        <v>142.35</v>
+        <v>131.89</v>
       </c>
       <c r="E121" s="4">
-        <v>2.69193E-4</v>
+        <v>9.2778E-5</v>
       </c>
       <c r="F121" s="4">
         <v>4.0</v>
       </c>
       <c r="G121" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C122" s="6">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D122" s="6">
-        <v>143.88</v>
+        <v>95.92</v>
       </c>
       <c r="E122" s="6">
-        <v>2.72086E-4</v>
+        <v>6.7475E-5</v>
       </c>
       <c r="F122" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G122" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="123">
@@ -3346,68 +3346,68 @@
         <v>53</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C123" s="4">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="D123" s="4">
-        <v>155.87</v>
+        <v>119.92</v>
       </c>
       <c r="E123" s="4">
-        <v>6.9822E-5</v>
+        <v>8.4358E-5</v>
       </c>
       <c r="F123" s="4">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G123" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C124" s="6">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="D124" s="6">
-        <v>164.89</v>
+        <v>155.87</v>
       </c>
       <c r="E124" s="6">
-        <v>7.3863E-5</v>
+        <v>2.8665E-5</v>
       </c>
       <c r="F124" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G124" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D125" s="4">
-        <v>109.5</v>
+        <v>89.94</v>
       </c>
       <c r="E125" s="4">
-        <v>4.9051E-5</v>
+        <v>1.654E-5</v>
       </c>
       <c r="F125" s="4">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G125" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="126">
@@ -3415,68 +3415,68 @@
         <v>54</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C126" s="6">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="D126" s="6">
-        <v>131.89</v>
+        <v>74.95</v>
       </c>
       <c r="E126" s="6">
-        <v>9.217E-5</v>
+        <v>1.3784E-5</v>
       </c>
       <c r="F126" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G126" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C127" s="4">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="D127" s="4">
-        <v>149.9</v>
+        <v>104.93</v>
       </c>
       <c r="E127" s="4">
-        <v>1.04757E-4</v>
+        <v>2.296E-5</v>
       </c>
       <c r="F127" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G127" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128" s="6">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D128" s="6">
-        <v>83.93</v>
+        <v>35.97</v>
       </c>
       <c r="E128" s="6">
-        <v>5.8654E-5</v>
+        <v>7.871E-6</v>
       </c>
       <c r="F128" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G128" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
@@ -3484,68 +3484,68 @@
         <v>55</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C129" s="4">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="D129" s="4">
-        <v>131.89</v>
+        <v>21.9</v>
       </c>
       <c r="E129" s="4">
-        <v>5.976E-6</v>
+        <v>4.792E-6</v>
       </c>
       <c r="F129" s="4">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="G129" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C130" s="6">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="D130" s="6">
-        <v>164.89</v>
+        <v>95.92</v>
       </c>
       <c r="E130" s="6">
-        <v>7.471E-6</v>
+        <v>1.42155E-4</v>
       </c>
       <c r="F130" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G130" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" s="4">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="D131" s="4">
-        <v>95.92</v>
+        <v>65.7</v>
       </c>
       <c r="E131" s="4">
-        <v>4.346E-6</v>
+        <v>9.7369E-5</v>
       </c>
       <c r="F131" s="4">
         <v>3.0</v>
       </c>
       <c r="G131" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="132">
@@ -3553,68 +3553,68 @@
         <v>56</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C132" s="6">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="D132" s="6">
-        <v>194.87</v>
+        <v>59.95</v>
       </c>
       <c r="E132" s="6">
-        <v>3.2141E-5</v>
+        <v>8.8847E-5</v>
       </c>
       <c r="F132" s="6">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G132" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C133" s="4">
         <v>8.0</v>
       </c>
       <c r="D133" s="4">
-        <v>95.92</v>
+        <v>119.92</v>
       </c>
       <c r="E133" s="4">
-        <v>1.5821E-5</v>
+        <v>1.3068E-5</v>
       </c>
       <c r="F133" s="4">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G133" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C134" s="6">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D134" s="6">
-        <v>104.93</v>
+        <v>71.94</v>
       </c>
       <c r="E134" s="6">
-        <v>1.7307E-5</v>
+        <v>7.839E-6</v>
       </c>
       <c r="F134" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G134" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="135">
@@ -3622,68 +3622,68 @@
         <v>57</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" s="4">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="D135" s="4">
-        <v>224.85</v>
+        <v>54.75</v>
       </c>
       <c r="E135" s="4">
-        <v>9.1912E-5</v>
+        <v>5.966E-6</v>
       </c>
       <c r="F135" s="4">
         <v>3.0</v>
       </c>
       <c r="G135" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C136" s="6">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="D136" s="6">
-        <v>143.88</v>
+        <v>186.15</v>
       </c>
       <c r="E136" s="6">
-        <v>5.8814E-5</v>
+        <v>7.5791E-5</v>
       </c>
       <c r="F136" s="6">
         <v>5.0</v>
       </c>
       <c r="G136" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C137" s="4">
         <v>12.0</v>
       </c>
       <c r="D137" s="4">
-        <v>179.88</v>
+        <v>143.88</v>
       </c>
       <c r="E137" s="4">
-        <v>7.3529E-5</v>
+        <v>5.8581E-5</v>
       </c>
       <c r="F137" s="4">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G137" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="138">
@@ -3691,68 +3691,68 @@
         <v>58</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C138" s="6">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="D138" s="6">
-        <v>76.65</v>
+        <v>95.92</v>
       </c>
       <c r="E138" s="6">
-        <v>3.3009E-5</v>
+        <v>3.9054E-5</v>
       </c>
       <c r="F138" s="6">
         <v>3.0</v>
       </c>
       <c r="G138" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C139" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="D139" s="4">
-        <v>104.93</v>
+        <v>119.9</v>
       </c>
       <c r="E139" s="4">
-        <v>4.5188E-5</v>
+        <v>2.5059E-5</v>
       </c>
       <c r="F139" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G139" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C140" s="6">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D140" s="6">
-        <v>59.95</v>
+        <v>95.92</v>
       </c>
       <c r="E140" s="6">
-        <v>2.5817E-5</v>
+        <v>2.0047E-5</v>
       </c>
       <c r="F140" s="6">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="G140" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="141">
@@ -3760,68 +3760,68 @@
         <v>59</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C141" s="4">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="D141" s="4">
-        <v>219.0</v>
+        <v>76.65</v>
       </c>
       <c r="E141" s="4">
-        <v>4.02336E-4</v>
+        <v>1.602E-5</v>
       </c>
       <c r="F141" s="4">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G141" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C142" s="6">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="D142" s="6">
-        <v>194.87</v>
+        <v>71.94</v>
       </c>
       <c r="E142" s="6">
-        <v>3.58006E-4</v>
+        <v>5.0275E-5</v>
       </c>
       <c r="F142" s="6">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G142" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C143" s="4">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="D143" s="4">
-        <v>119.9</v>
+        <v>89.94</v>
       </c>
       <c r="E143" s="4">
-        <v>2.20274E-4</v>
+        <v>6.2854E-5</v>
       </c>
       <c r="F143" s="4">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="G143" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="144">
@@ -3829,68 +3829,68 @@
         <v>60</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C144" s="6">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D144" s="6">
-        <v>65.7</v>
+        <v>43.8</v>
       </c>
       <c r="E144" s="6">
-        <v>1.8804E-5</v>
+        <v>3.0609E-5</v>
       </c>
       <c r="F144" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G144" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" s="4">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="D145" s="4">
-        <v>89.94</v>
+        <v>164.89</v>
       </c>
       <c r="E145" s="4">
-        <v>2.5742E-5</v>
+        <v>7.471E-6</v>
       </c>
       <c r="F145" s="4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G145" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C146" s="6">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D146" s="6">
-        <v>44.97</v>
+        <v>119.9</v>
       </c>
       <c r="E146" s="6">
-        <v>1.2871E-5</v>
+        <v>5.432E-6</v>
       </c>
       <c r="F146" s="6">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="G146" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="147">
@@ -3898,68 +3898,68 @@
         <v>61</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C147" s="4">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="D147" s="4">
-        <v>167.86</v>
+        <v>47.96</v>
       </c>
       <c r="E147" s="4">
-        <v>1.6313E-5</v>
+        <v>2.173E-6</v>
       </c>
       <c r="F147" s="4">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G147" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C148" s="6">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="D148" s="6">
-        <v>194.87</v>
+        <v>149.9</v>
       </c>
       <c r="E148" s="6">
-        <v>1.8938E-5</v>
+        <v>4.4251E-5</v>
       </c>
       <c r="F148" s="6">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="G148" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149" s="4">
         <v>8.0</v>
       </c>
       <c r="D149" s="4">
-        <v>119.92</v>
+        <v>95.92</v>
       </c>
       <c r="E149" s="4">
-        <v>1.1654E-5</v>
+        <v>2.8316E-5</v>
       </c>
       <c r="F149" s="4">
         <v>3.0</v>
       </c>
       <c r="G149" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="150">
@@ -3967,68 +3967,68 @@
         <v>62</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C150" s="6">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="D150" s="6">
-        <v>191.84</v>
+        <v>76.65</v>
       </c>
       <c r="E150" s="6">
-        <v>2.4287E-5</v>
+        <v>2.2627E-5</v>
       </c>
       <c r="F150" s="6">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G150" s="6">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C151" s="4">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="D151" s="4">
-        <v>153.3</v>
+        <v>89.94</v>
       </c>
       <c r="E151" s="4">
-        <v>1.9408E-5</v>
+        <v>1.5996E-5</v>
       </c>
       <c r="F151" s="4">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G151" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C152" s="6">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="D152" s="6">
-        <v>83.93</v>
+        <v>47.96</v>
       </c>
       <c r="E152" s="6">
-        <v>1.0626E-5</v>
+        <v>8.53E-6</v>
       </c>
       <c r="F152" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G152" s="6">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="153">
@@ -4036,68 +4036,68 @@
         <v>63</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C153" s="4">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="D153" s="4">
-        <v>164.89</v>
+        <v>32.85</v>
       </c>
       <c r="E153" s="4">
-        <v>2.07444E-4</v>
+        <v>5.842E-6</v>
       </c>
       <c r="F153" s="4">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C154" s="6">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D154" s="6">
-        <v>89.94</v>
+        <v>95.92</v>
       </c>
       <c r="E154" s="6">
-        <v>1.13151E-4</v>
+        <v>4.2968E-5</v>
       </c>
       <c r="F154" s="6">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G154" s="6">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C155" s="4">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D155" s="4">
-        <v>43.8</v>
+        <v>119.92</v>
       </c>
       <c r="E155" s="4">
-        <v>5.5104E-5</v>
+        <v>5.3719E-5</v>
       </c>
       <c r="F155" s="4">
         <v>3.0</v>
       </c>
       <c r="G155" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="156">
@@ -4105,67 +4105,21 @@
         <v>64</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C156" s="6">
-        <v>21.0</v>
+        <v>6.0</v>
       </c>
       <c r="D156" s="6">
-        <v>314.79</v>
+        <v>65.7</v>
       </c>
       <c r="E156" s="6">
-        <v>4.6563E-5</v>
+        <v>2.9431E-5</v>
       </c>
       <c r="F156" s="6">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G156" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D157" s="4">
-        <v>131.4</v>
-      </c>
-      <c r="E157" s="4">
-        <v>1.9437E-5</v>
-      </c>
-      <c r="F157" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G157" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C158" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D158" s="6">
-        <v>149.9</v>
-      </c>
-      <c r="E158" s="6">
-        <v>2.2173E-5</v>
-      </c>
-      <c r="F158" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G158" s="6">
         <v>3.0</v>
       </c>
     </row>
